--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F009B39C-A2FB-4E77-BB22-B045914205AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5612133-7540-4793-A5CD-FA0D9F0C534E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>what</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Developed a package for statistical software R, called tactileR, which converts visual data into touchable graphs in conjunction with a Swell Form Heating Machine (portfolio of samples available upon request).</t>
-  </si>
-  <si>
-    <t>Reference: https://github.com/jooyoungseo/tactileR.Testing and consulting for accessible HTML5/CSS3 webpages for Penn State University sites and learning management tools (e.g., Angel, Canvas, Voice Thread, Adobe products, etc.).</t>
   </si>
   <si>
     <t>Student Researcher</t>
@@ -998,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,152 +1056,147 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E18" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E19" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5612133-7540-4793-A5CD-FA0D9F0C534E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1554B2E-FB7A-46B2-AB57-EA69724F6116}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>Engaged in a project for future research on making visualized statistical data accessible.</t>
   </si>
   <si>
-    <t>Developed a package for statistical software R, called tactileR, which converts visual data into touchable graphs in conjunction with a Swell Form Heating Machine (portfolio of samples available upon request).</t>
-  </si>
-  <si>
     <t>Student Researcher</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Presented the report to the Quality of Life Technology team at Seoul National University.</t>
+  </si>
+  <si>
+    <t>Developed a package for statistical software R, called tactileR, which converts visual data into touchable graphs in conjunction with a Swell Form Heating Machine.</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
@@ -1174,29 +1174,29 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1554B2E-FB7A-46B2-AB57-EA69724F6116}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C7F27-0C49-4DAE-B5C3-E1182ADE6E2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,24 +79,15 @@
     <t>Feb. 2015 - Dec. 2015</t>
   </si>
   <si>
-    <t>Learning2CC</t>
-  </si>
-  <si>
     <t>Participated in an ongoing learning community project for sharing tips for video caption for deaf learners.</t>
   </si>
   <si>
     <t>Developed Learning2CC, the online community site, using the WordPress platform.</t>
   </si>
   <si>
-    <t>Exploring Accessibility of Maker Toolkits</t>
-  </si>
-  <si>
     <t>Jun. 2017 - Present</t>
   </si>
   <si>
-    <t>Online Interactions of the Blind</t>
-  </si>
-  <si>
     <t>May. 2019 - Present</t>
   </si>
   <si>
@@ -155,6 +146,15 @@
   </si>
   <si>
     <t>Developed a package for statistical software R, called tactileR, which converts visual data into touchable graphs in conjunction with a Swell Form Heating Machine.</t>
+  </si>
+  <si>
+    <t>Online Interactions of the Blind Research Project</t>
+  </si>
+  <si>
+    <t>Learning2CC Project</t>
+  </si>
+  <si>
+    <t>Accessibility of Maker Toolkits Research Project</t>
   </si>
 </sst>
 </file>
@@ -1032,27 +1032,27 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
@@ -1077,21 +1077,21 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
@@ -1099,16 +1099,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
@@ -1116,16 +1116,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
@@ -1136,18 +1136,18 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
@@ -1174,29 +1174,29 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C7F27-0C49-4DAE-B5C3-E1182ADE6E2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7241445-EB45-4FE1-A13D-384F9076605E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>what</t>
   </si>
@@ -112,15 +112,9 @@
     <t>May. 2018 - Present</t>
   </si>
   <si>
-    <t>Developing “Image ALT Text for HTML” and “Image ALT Text for Word” badges using the Penn State digital badges platform.</t>
-  </si>
-  <si>
     <t>Evaluating suitability of digital badges according to web content accessibility guidelines (WCAG) 2.0.</t>
   </si>
   <si>
-    <t>Testing and consulting for accessible HTML5/CSS3 webpages for Penn State University sites and learning management tools (e.g., Angel, Canvas, Voice Thread, Adobe products, etc.)</t>
-  </si>
-  <si>
     <t>Engaged in a project for future research on making visualized statistical data accessible.</t>
   </si>
   <si>
@@ -155,6 +149,9 @@
   </si>
   <si>
     <t>Accessibility of Maker Toolkits Research Project</t>
+  </si>
+  <si>
+    <t>Testing and consulting for accessible HTML5/CSS3/JS webpages for Penn State University sites and learning management tools (e.g., Angel, Canvas, Voice Thread, Adobe products, etc.)</t>
   </si>
 </sst>
 </file>
@@ -995,9 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -1020,183 +1019,178 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.75">
-      <c r="E18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7241445-EB45-4FE1-A13D-384F9076605E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D0817-C22B-4547-9AF7-3DBC00B722A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>what</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>Testing and consulting for accessible HTML5/CSS3/JS webpages for Penn State University sites and learning management tools (e.g., Angel, Canvas, Voice Thread, Adobe products, etc.)</t>
+  </si>
+  <si>
+    <t>Learning Math with Jupyter Notebooks</t>
+  </si>
+  <si>
+    <t>Sep. 2020 - Present</t>
+  </si>
+  <si>
+    <t>Assisting Dr. Jan Reimann (Associate Professor of Mathematics) in developing accessible Jupyter Notebook systems for Math 110 (Techniques of Calculus).</t>
   </si>
 </sst>
 </file>
@@ -992,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1019,177 +1028,194 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.75">
+      <c r="E18" t="s">
         <v>38</v>
       </c>
     </row>

--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D0817-C22B-4547-9AF7-3DBC00B722A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>what</t>
   </si>
@@ -73,18 +73,6 @@
     <t>Improved web accessibility for deaf-blind learners by removing blockers on website platform.</t>
   </si>
   <si>
-    <t>Site Manager</t>
-  </si>
-  <si>
-    <t>Feb. 2015 - Dec. 2015</t>
-  </si>
-  <si>
-    <t>Participated in an ongoing learning community project for sharing tips for video caption for deaf learners.</t>
-  </si>
-  <si>
-    <t>Developed Learning2CC, the online community site, using the WordPress platform.</t>
-  </si>
-  <si>
     <t>Jun. 2017 - Present</t>
   </si>
   <si>
@@ -115,45 +103,12 @@
     <t>Evaluating suitability of digital badges according to web content accessibility guidelines (WCAG) 2.0.</t>
   </si>
   <si>
-    <t>Engaged in a project for future research on making visualized statistical data accessible.</t>
-  </si>
-  <si>
-    <t>Student Researcher</t>
-  </si>
-  <si>
-    <t>Feb. 2012 - Mar. 2012</t>
-  </si>
-  <si>
-    <t>The Ministry of Knowledge Economy and Seoul National University</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Visited various places in California, such as CSUN conference, museums, universities, and other publiclocations, to observe universal design products and services.</t>
-  </si>
-  <si>
-    <t>Produced a comparison report on universal design products and services in Korea and the United States.</t>
-  </si>
-  <si>
-    <t>Presented the report to the Quality of Life Technology team at Seoul National University.</t>
-  </si>
-  <si>
-    <t>Developed a package for statistical software R, called tactileR, which converts visual data into touchable graphs in conjunction with a Swell Form Heating Machine.</t>
-  </si>
-  <si>
     <t>Online Interactions of the Blind Research Project</t>
   </si>
   <si>
-    <t>Learning2CC Project</t>
-  </si>
-  <si>
     <t>Accessibility of Maker Toolkits Research Project</t>
   </si>
   <si>
-    <t>Testing and consulting for accessible HTML5/CSS3/JS webpages for Penn State University sites and learning management tools (e.g., Angel, Canvas, Voice Thread, Adobe products, etc.)</t>
-  </si>
-  <si>
     <t>Learning Math with Jupyter Notebooks</t>
   </si>
   <si>
@@ -161,6 +116,9 @@
   </si>
   <si>
     <t>Assisting Dr. Jan Reimann (Associate Professor of Mathematics) in developing accessible Jupyter Notebook systems for Math 110 (Techniques of Calculus).</t>
+  </si>
+  <si>
+    <t>Developing and consulting accessible HTML5/CSS3/JS webpages for Penn State University sites and learning management tools.</t>
   </si>
 </sst>
 </file>
@@ -1001,15 +959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,80 +982,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1113,10 +1069,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1130,93 +1086,34 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E15" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.75">
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.75">
-      <c r="E18" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/research-experience.xlsx
+++ b/data/research-experience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F912A2F-0E7C-40B8-8802-609AB145E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDFA96A-6D33-429E-820A-AFE9663D6EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Graduate Assistant</t>
   </si>
   <si>
-    <t>Aug. 2016 - Present</t>
-  </si>
-  <si>
     <t>IT Accessibility Team, Teaching and Learning with Technology (TLT)</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>Improved web accessibility for deaf-blind learners by removing blockers on website platform.</t>
   </si>
   <si>
-    <t>Jun. 2017 - Present</t>
-  </si>
-  <si>
-    <t>May. 2019 - Present</t>
-  </si>
-  <si>
     <t>Conducting quantitative ethnography research on how blind learners pursue STEM disciplines as captured through a large-scale  mailing listservs.</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>Accessible RMarkdown Online Writer (AROW) Project, Teaching and Learning with Technology (TLT)</t>
   </si>
   <si>
-    <t>May. 2018 - Present</t>
-  </si>
-  <si>
     <t>Evaluating suitability of digital badges according to web content accessibility guidelines (WCAG) 2.0.</t>
   </si>
   <si>
@@ -112,13 +100,25 @@
     <t>Learning Math with Jupyter Notebooks</t>
   </si>
   <si>
-    <t>Sep. 2020 - Present</t>
-  </si>
-  <si>
     <t>Assisting Dr. Jan Reimann (Associate Professor of Mathematics) in developing accessible Jupyter Notebook systems for Math 110 (Techniques of Calculus).</t>
   </si>
   <si>
     <t>Developing and consulting accessible HTML5/CSS3/JS webpages for Penn State University sites and learning management tools.</t>
+  </si>
+  <si>
+    <t>May. 2019 - Jul. 2021</t>
+  </si>
+  <si>
+    <t>Sep. 2020 - Jul. 2021</t>
+  </si>
+  <si>
+    <t>May. 2018 - Jul. 2021</t>
+  </si>
+  <si>
+    <t>Jun. 2017 - Jul. 2021</t>
+  </si>
+  <si>
+    <t>Aug. 2016 - Jul. 2021</t>
   </si>
 </sst>
 </file>
@@ -984,92 +984,92 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1077,43 +1077,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
